--- a/biology/Botanique/Bois_pétrifié/Bois_pétrifié.xlsx
+++ b/biology/Botanique/Bois_pétrifié/Bois_pétrifié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bois_p%C3%A9trifi%C3%A9</t>
+          <t>Bois_pétrifié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois pétrifié (du grec petro signifiant « pierre », littéralement « bois transformé en pierre ») est un type de fossile. L'étude de ces bois fait partie de la géologie, mais aussi de la paléobotanique et de l'étude des paléoenvironnements.
-La carbonisation (bois carbonisé et xylit), l'immersion dans l'eau (bois gorgé d'eau) et la minéralisation ou pétrification (bois pétrifié) sont les trois moyens par lesquels un bois peut se conserver à l'échelle des temps géologiques[1].
+La carbonisation (bois carbonisé et xylit), l'immersion dans l'eau (bois gorgé d'eau) et la minéralisation ou pétrification (bois pétrifié) sont les trois moyens par lesquels un bois peut se conserver à l'échelle des temps géologiques.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bois_p%C3%A9trifi%C3%A9</t>
+          <t>Bois_pétrifié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description et processus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois pétrifié est composé de bois fossilisé où de la matière organique a été remplacée par des minéraux (le plus souvent des silicates, comme le quartz, mais aussi de la pyrite, etc.), tout en conservant une partie de la structure anatomique originale du bois.
-Le processus de pétrification se produit quand le bois est enterré sous une couche de sédiments, où il se conserve d'abord en raison d'un manque d'oxygène, avant qu'une eau riche en minéraux ne circule dans le sédiment et imprègne peu à peu les cellules du bois de minéraux. Ceux-ci cristallisent ensuite éventuellement, de diverses manières. Il suffit probablement de moins de cent ans pour que certains morceaux de bois puissent être pétrifiés[4], mais le processus pourrait aussi être parfois beaucoup plus long, incluant des phases de recristallisation.
+Le processus de pétrification se produit quand le bois est enterré sous une couche de sédiments, où il se conserve d'abord en raison d'un manque d'oxygène, avant qu'une eau riche en minéraux ne circule dans le sédiment et imprègne peu à peu les cellules du bois de minéraux. Ceux-ci cristallisent ensuite éventuellement, de diverses manières. Il suffit probablement de moins de cent ans pour que certains morceaux de bois puissent être pétrifiés, mais le processus pourrait aussi être parfois beaucoup plus long, incluant des phases de recristallisation.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bois_p%C3%A9trifi%C3%A9</t>
+          <t>Bois_pétrifié</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,17 +558,19 @@
           <t>Couleurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les couleurs prises par le bois pétrifié sont dues aux composants chimiques véhiculés par l'eau lors du processus de pétrification (plutôt qu'à l'essence de l'arbre[5]). Les motifs de couleur complexes s'expliquent par le degré du porosité du bois au moment où les troncs ont été imprégnés par les différentes substances colorantes. Des gradations subtiles de teintes peuvent être observées pour un même spécimen, du fait que deux ou plusieurs composants se sont mêlés[5]. Voici quelques exemples de composants chimiques et des couleurs qu'ils produisent : 
-Hématite, une forme de fer oxydé : rouge et rose[6]
-Goethite, un oxyde de fer hydraté :  jaune, marron et orange[6]
-Chrome : vert clair[5]
-Fer natif (Fe) : vert[6]
-Silice pure (SiO2) : blanc[6]
-Carbone organique ou pyrite (FeS2 sulfure de fer) : noir[6]
-Dioxyde de manganèse (MnO2): violet et bleu[6]
-Le fer peut produire un arc-en-ciel de couleurs différentes en fonction de son abondance et de son degré d'oxydation[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les couleurs prises par le bois pétrifié sont dues aux composants chimiques véhiculés par l'eau lors du processus de pétrification (plutôt qu'à l'essence de l'arbre). Les motifs de couleur complexes s'expliquent par le degré du porosité du bois au moment où les troncs ont été imprégnés par les différentes substances colorantes. Des gradations subtiles de teintes peuvent être observées pour un même spécimen, du fait que deux ou plusieurs composants se sont mêlés. Voici quelques exemples de composants chimiques et des couleurs qu'ils produisent : 
+Hématite, une forme de fer oxydé : rouge et rose
+Goethite, un oxyde de fer hydraté :  jaune, marron et orange
+Chrome : vert clair
+Fer natif (Fe) : vert
+Silice pure (SiO2) : blanc
+Carbone organique ou pyrite (FeS2 sulfure de fer) : noir
+Dioxyde de manganèse (MnO2): violet et bleu
+Le fer peut produire un arc-en-ciel de couleurs différentes en fonction de son abondance et de son degré d'oxydation.
 </t>
         </is>
       </c>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bois_p%C3%A9trifi%C3%A9</t>
+          <t>Bois_pétrifié</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,9 +599,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très apprécié pour ses qualités esthétiques, le bois pétrifié est utilisé pour la fabrication de bijoux. Il est recherché par les collectionneurs[7]. Des vertus médicinales lui sont parfois traditionnellement attribuées[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très apprécié pour ses qualités esthétiques, le bois pétrifié est utilisé pour la fabrication de bijoux. Il est recherché par les collectionneurs. Des vertus médicinales lui sont parfois traditionnellement attribuées.
 </t>
         </is>
       </c>
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bois_p%C3%A9trifi%C3%A9</t>
+          <t>Bois_pétrifié</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Forêts pétrifiées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve du bois pétrifié dans de nombreuses régions du monde. Les morceaux de bois pétrifié de grande taille ou reproduisant fidèlement le bois sont relativement rares.
 Algérie : région d'In Salah, où s'étendait autrefois une grande forêt
@@ -622,14 +642,14 @@
 Arabie saoudite : forêt pétrifiée au nord de Riyadh
 Argentine : le monument national des Bois Pétrifiés, dans la province de Santa Cruz en Patagonie, compte de nombreux arbres qui dépassent 3 m de diamètre et 30 m de long
 Australie : compte des dépôts de bois pétrifié et opalisé. Chinchilla au Queensland est réputée pour son « Chinchilla Red ».
-Belgique : forêt pétrifiée près de Hoegaarden[9]
-Brésil : forêt pétrifiée des grès de Mata, dans l'état de Rio Grande do Sul[10]
+Belgique : forêt pétrifiée près de Hoegaarden
+Brésil : forêt pétrifiée des grès de Mata, dans l'état de Rio Grande do Sul
 Canada :
 Badlands du sud de l'Alberta ; le bois pétrifié est par ailleurs la pierre provinciale de l'Alberta
 Île Axel Heiberg, Nunavut : grande forêt pétrifiée
 Chine : Dzoungarie, Xinjiang : le gouvernement réprime la collecte du matériau, mais de grandes dalles, voire des tables, ont été réalisées avec du bois pétrifié coloré
 Équateur : forêt pétrifiée de Puyango
-Égypte : forêt pétrifiée sur la route Le Caire-Suez, zone protégée. Également dans la zone de New Cairo près de Nasr city, El Qattamiyya, près du district d'El Maadi, dans l'oasis d'Al-Farafra[11] et dans celle d'Al-Bahariya[12]
+Égypte : forêt pétrifiée sur la route Le Caire-Suez, zone protégée. Également dans la zone de New Cairo près de Nasr city, El Qattamiyya, près du district d'El Maadi, dans l'oasis d'Al-Farafra et dans celle d'Al-Bahariya
 États-Unis :
 Parc national de Petrified Forest, Arizona
 Petrified Forest, Californie
@@ -637,7 +657,7 @@
 Parc national Theodore Roosevelt, Medora, Dakota du Nord
 Petrified Wood Park, Lemmon, Dakota du Sud
 Mississippi Petrified Forest, Flora, Mississippi
-Forêt fossile de Gilboa, New York ; une des plus anciennes forêts de bois pétrifié, datant d'environ 380 millions d'années. Les seuls arbres disposant de beaucoup de bois sont des progymnospermes à rhizomes souterrains[13]
+Forêt fossile de Gilboa, New York ; une des plus anciennes forêts de bois pétrifié, datant d'environ 380 millions d'années. Les seuls arbres disposant de beaucoup de bois sont des progymnospermes à rhizomes souterrains
 Escalante Petrified Forest State Park, Utah
 Ginkgo Petrified Forest State Park (en), Washington
 Petrified Springs, Kenosha, Wisconsin
@@ -654,10 +674,10 @@
 La forêt fossile de Takapuna, Auckland, Nouvelle-Zélande
 République tchèque : Nová Paka
 Royaume-Uni :
-Nombreux exemples de forêts submergées et pétrifiées, visibles à marée basse sur la côte d'Angleterre et du Pays de Galles[14]
+Nombreux exemples de forêts submergées et pétrifiées, visibles à marée basse sur la côte d'Angleterre et du Pays de Galles
 Fossil Forest, Dorset
 Soudan: Bois pétrifiée dans la zone d'El-Kourrou.
-Thaïlande : Bantak Petrified Forest Park, district de Ban Tak[15]
+Thaïlande : Bantak Petrified Forest Park, district de Ban Tak
 Ukraine : troncs d'araucaria pétrifiés près de Droujkivka
 </t>
         </is>
